--- a/pred_ohlcv/54_21/2020-01-15 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 EOS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-8218.465848660002</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-8206.478548660001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-8369.860148660002</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-8362.300148660002</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-8381.300148660002</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-8381.300148660002</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-11241.85024866</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-12697.64984866</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-12697.64984866</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-12723.80154866</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-12760.71724866</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-12684.10404866</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-13647.18834866</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-14417.03214866</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-14417.03214866</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-14148.34104866</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-14583.27474866</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-14583.27474866</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-14557.04864866</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-14475.53224866</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-14701.40324866</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-15605.30954866</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-15605.30954866</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-15600.11954866</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-15617.46194866</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-15617.46194866</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-15617.46194866</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-13869.46194866</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-14037.79954866</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-14037.79954866</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-13916.39304866</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-10798.86334866</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-12221.74604866</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-12221.74604866</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-12082.20534866001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-12083.30532009</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-12083.30532009</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-12498.47082009</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-12422.37082009</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-11981.37082009</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-10156.26942009</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>9519.184808399994</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>9769.184808399994</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>9830.076008399994</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>9833.639608399993</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>9697.112808399994</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>9605.831708399994</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>9872.261108399995</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>10183.33500839999</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>10874.14400839999</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>16248.12930213999</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-671.6943068900096</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>164.1426931099904</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1519.375006890009</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1546.209806890009</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>5640.120790389992</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>5640.120790389992</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>6381.602690389992</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>69465.55969558001</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>56617.38093170001</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>52916.42758341001</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>45891.77588341001</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>45570.57648341001</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>86200.87283001999</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>106004.27773002</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>64643.35979017999</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>76556.47089017999</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>65121.43272680999</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>78680.78482680999</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>75738.08482680999</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>67294.69012680999</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>67294.69012680999</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>63361.48592680999</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>76320.36542680999</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>69554.32622680999</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>128217.63690616</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>166330.89156729</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>140682.28881615</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>132602.86511615</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>143284.08881615</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>124465.30871615</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>127714.37642278</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>113967.15033488</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>106428.82663488</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>93769.94083488001</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>88319.69163488</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>87460.73483488</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>91845.50313488</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>93790.03804940001</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>94001.17504940002</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>98618.05334940001</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>103192.7138494</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>100267.0636494</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>102355.1931494</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>101134.0536494</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>102471.9884494</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>101808.3862494</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>96504.2384494</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>90629.6076494</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>90629.6076494</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>1434771.17799221</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>1434771.17799221</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>1433481.29449221</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>1429372.192292209</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>1429372.192292209</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>1427404.03189221</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>1428797.25909221</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>1427387.94939221</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>1430144.57879221</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>1430144.57879221</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>1430475.24294015</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>1428714.88764015</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>1419117.41133414</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>1422262.073534139</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>1430204.71463414</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>1435313.71825792</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>1432372.74105792</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>1432494.87305792</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>1434686.28695792</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>1436647.19577733</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>1435778.90737733</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>1435728.90737733</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>1436029.59217733</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>1456090.89337733</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>1470189.12117733</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>1457124.83327733</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>1452900.95157733</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>1444603.49337733</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>1448305.55307733</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>1447295.43187733</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>1447295.43187733</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>1434855.22597733</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>1437219.27667733</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>1438270.40337733</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>1438416.25297733</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>1438430.83597733</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>1432361.19267733</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>1360527.91487642</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>1355551.09467642</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>1356072.46307642</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>1355769.38427642</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>1355769.38427642</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>1355769.38427642</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>1354845.07387642</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>1359485.88717642</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>1358455.26957642</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>1360445.44617642</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>1362121.214276419</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>1361403.31017642</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>1365111.795276419</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>1364180.675676419</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>1364180.994976419</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>1363518.01647642</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>1363406.025276419</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>1363906.025276419</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>1359917.81662765</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>1359707.85612765</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>1359753.45112765</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>1417172.02909217</v>
       </c>
       <c r="H990">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>1409009.25839217</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>1476893.85215978</v>
       </c>
       <c r="H1073">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>1503303.75665978</v>
       </c>
       <c r="H1074">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>1500746.40505978</v>
       </c>
       <c r="H1075">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>1515588.85295978</v>
       </c>
       <c r="H1076">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>1509235.36525978</v>
       </c>
       <c r="H1077">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>1508759.60995978</v>
       </c>
       <c r="H1078">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>1508579.12385978</v>
       </c>
       <c r="H1079">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>1507577.27505978</v>
       </c>
       <c r="H1080">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>1508170.99905978</v>
       </c>
       <c r="H1081">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>1509388.01705978</v>
       </c>
       <c r="H1082">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>1509388.01705978</v>
       </c>
       <c r="H1083">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>1512644.87315978</v>
       </c>
       <c r="H1084">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>1504049.42423063</v>
       </c>
       <c r="H1085">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>1503097.64033063</v>
       </c>
       <c r="H1086">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>1508871.95163063</v>
       </c>
       <c r="H1087">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>1510758.58573063</v>
       </c>
       <c r="H1088">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>1510995.41253063</v>
       </c>
       <c r="H1089">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>1504734.24103063</v>
       </c>
       <c r="H1090">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>1536026.19093063</v>
       </c>
       <c r="H1091">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>1515562.77633063</v>
       </c>
       <c r="H1092">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>1511223.64993063</v>
       </c>
       <c r="H1093">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>1504483.75349499</v>
       </c>
       <c r="H1094">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>1505536.24239499</v>
       </c>
       <c r="H1095">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>1519412.92969499</v>
       </c>
       <c r="H1096">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>1520287.06859499</v>
       </c>
       <c r="H1097">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>1537157.46669499</v>
       </c>
       <c r="H1098">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>1536377.53589499</v>
       </c>
       <c r="H1099">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>1546933.20647536</v>
       </c>
       <c r="H1100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>1567289.21569499</v>
       </c>
       <c r="H1101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>1623551.01040025</v>
       </c>
       <c r="H1102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>1593274.88122348</v>
       </c>
       <c r="H1103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>1596805.42042348</v>
       </c>
       <c r="H1104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 EOS ohlcv.xlsx
@@ -2160,7 +2160,7 @@
         <v>10457.21290839999</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>10457.21290839999</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>10457.21290839999</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>10183.33500839999</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>10874.14400839999</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>5640.120790389992</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>5640.120790389992</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>6381.602690389992</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>69465.55969558001</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>56617.38093170001</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>52916.42758341001</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>45891.77588341001</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>45570.57648341001</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>86200.87283001999</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>106004.27773002</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>64643.35979017999</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>76556.47089017999</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>65121.43272680999</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>78680.78482680999</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>75738.08482680999</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>67294.69012680999</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>67294.69012680999</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>63361.48592680999</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>76320.36542680999</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>69554.32622680999</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>128217.63690616</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>166330.89156729</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>140682.28881615</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>132602.86511615</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>143284.08881615</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>124465.30871615</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>127714.37642278</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>113967.15033488</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>106428.82663488</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>93769.94083488001</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>88319.69163488</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>87460.73483488</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>91845.50313488</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>93790.03804940001</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>94001.17504940002</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>98618.05334940001</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>103192.7138494</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>100267.0636494</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>102355.1931494</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>101134.0536494</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>102471.9884494</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>101808.3862494</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>96504.2384494</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>90629.6076494</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>90629.6076494</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>1434771.17799221</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>1434771.17799221</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>1433481.29449221</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>1429372.192292209</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>1429372.192292209</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>1427404.03189221</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>1428797.25909221</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>1427387.94939221</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>1430144.57879221</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>1430144.57879221</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>1430475.24294015</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>1428714.88764015</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>1419117.41133414</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>1422262.073534139</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>1430204.71463414</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>1435313.71825792</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>1432372.74105792</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>1432494.87305792</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>1434686.28695792</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>1436647.19577733</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>1435778.90737733</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>1435728.90737733</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>1436029.59217733</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>1456090.89337733</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>1470189.12117733</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>1457124.83327733</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>1452900.95157733</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>1444603.49337733</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>1448305.55307733</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>1447295.43187733</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>1447295.43187733</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>1434855.22597733</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>1437219.27667733</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>1438270.40337733</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>1438416.25297733</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>1438430.83597733</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>1432361.19267733</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>1360527.91487642</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>1355551.09467642</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>1356072.46307642</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>1355769.38427642</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>1355769.38427642</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>1355769.38427642</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>1354845.07387642</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>1359485.88717642</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>1358455.26957642</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>1360445.44617642</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>1362121.214276419</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>1361403.31017642</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>1365111.795276419</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>1364180.675676419</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>1364180.994976419</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>1363518.01647642</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>1363406.025276419</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>1363906.025276419</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>1359917.81662765</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>1359707.85612765</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>1359753.45112765</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>1431208.461992169</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>1417172.02909217</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>1423175.49732999</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>1476893.85215978</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>1503303.75665978</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>1500746.40505978</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>1515588.85295978</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>1509235.36525978</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>1508759.60995978</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>1508579.12385978</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>1507577.27505978</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>1508170.99905978</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>1509388.01705978</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>1509388.01705978</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>1512644.87315978</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>1504049.42423063</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>1503097.64033063</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>1508871.95163063</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>1510758.58573063</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>1510995.41253063</v>
       </c>
       <c r="H1089">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>1504734.24103063</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>1536026.19093063</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>1515562.77633063</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>1511223.64993063</v>
       </c>
       <c r="H1093">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>1504483.75349499</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>1505536.24239499</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>1519412.92969499</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>1520287.06859499</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>1537157.46669499</v>
       </c>
       <c r="H1098">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>1536377.53589499</v>
       </c>
       <c r="H1099">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>1546933.20647536</v>
       </c>
       <c r="H1100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>1567289.21569499</v>
       </c>
       <c r="H1101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>1623551.01040025</v>
       </c>
       <c r="H1102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>1593274.88122348</v>
       </c>
       <c r="H1103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>1596805.42042348</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
